--- a/Assets/Resources/Data/Code.xlsx
+++ b/Assets/Resources/Data/Code.xlsx
@@ -403,8 +403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CV101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="O97" sqref="O97"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="A89" sqref="A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -533,31 +533,31 @@
     </row>
     <row r="2" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A2" s="1">
-        <v>2020</v>
+        <v>4004</v>
       </c>
       <c r="B2" s="1">
-        <v>6020</v>
+        <v>2040</v>
       </c>
       <c r="C2" s="1">
         <v>3020</v>
       </c>
       <c r="D2" s="1">
-        <v>7039</v>
+        <v>7042</v>
       </c>
       <c r="E2" s="1">
-        <v>7139</v>
+        <v>6020</v>
       </c>
       <c r="F2" s="1">
-        <v>5010</v>
+        <v>6010</v>
       </c>
       <c r="G2" s="1">
-        <v>1020</v>
+        <v>4002</v>
       </c>
       <c r="H2" s="1">
-        <v>5020</v>
+        <v>6060</v>
       </c>
       <c r="I2" s="1">
-        <v>2030</v>
+        <v>5030</v>
       </c>
       <c r="J2" s="1">
         <v>4002</v>
@@ -655,34 +655,34 @@
     </row>
     <row r="3" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A3" s="1">
-        <v>2100</v>
+        <v>2060</v>
       </c>
       <c r="B3" s="1">
-        <v>4010</v>
+        <v>4001</v>
       </c>
       <c r="C3" s="1">
+        <v>3020</v>
+      </c>
+      <c r="D3" s="1">
+        <v>7073</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F3" s="1">
+        <v>5010</v>
+      </c>
+      <c r="G3" s="1">
+        <v>3020</v>
+      </c>
+      <c r="H3" s="1">
+        <v>5020</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3030</v>
+      </c>
+      <c r="J3" s="1">
         <v>9999</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1100</v>
-      </c>
-      <c r="E3" s="1">
-        <v>7199</v>
-      </c>
-      <c r="F3" s="1">
-        <v>5100</v>
-      </c>
-      <c r="G3" s="1">
-        <v>3100</v>
-      </c>
-      <c r="H3" s="1">
-        <v>6100</v>
-      </c>
-      <c r="I3" s="1">
-        <v>5030</v>
-      </c>
-      <c r="J3" s="1">
-        <v>7099</v>
       </c>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
@@ -777,34 +777,34 @@
     </row>
     <row r="4" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A4" s="1">
-        <v>4004</v>
+        <v>2080</v>
       </c>
       <c r="B4" s="1">
+        <v>3030</v>
+      </c>
+      <c r="C4" s="1">
+        <v>3030</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1080</v>
+      </c>
+      <c r="E4" s="1">
+        <v>7150</v>
+      </c>
+      <c r="F4" s="1">
         <v>2040</v>
       </c>
-      <c r="C4" s="1">
-        <v>7081</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5040</v>
-      </c>
-      <c r="E4" s="1">
-        <v>3040</v>
-      </c>
-      <c r="F4" s="1">
-        <v>6040</v>
-      </c>
       <c r="G4" s="1">
-        <v>8999</v>
+        <v>3080</v>
       </c>
       <c r="H4" s="1">
-        <v>1040</v>
+        <v>7119</v>
       </c>
       <c r="I4" s="1">
-        <v>7181</v>
+        <v>4003</v>
       </c>
       <c r="J4" s="1">
-        <v>5030</v>
+        <v>6030</v>
       </c>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -899,34 +899,34 @@
     </row>
     <row r="5" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A5" s="1">
-        <v>1010</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="1">
-        <v>4001</v>
+        <v>6020</v>
       </c>
       <c r="C5" s="1">
-        <v>5010</v>
+        <v>6010</v>
       </c>
       <c r="D5" s="1">
-        <v>1030</v>
+        <v>6010</v>
       </c>
       <c r="E5" s="1">
-        <v>2010</v>
+        <v>7148</v>
       </c>
       <c r="F5" s="1">
-        <v>6010</v>
+        <v>4002</v>
       </c>
       <c r="G5" s="1">
-        <v>3010</v>
+        <v>4002</v>
       </c>
       <c r="H5" s="1">
-        <v>7105</v>
+        <v>1040</v>
       </c>
       <c r="I5" s="1">
-        <v>7005</v>
+        <v>2030</v>
       </c>
       <c r="J5" s="1">
-        <v>6030</v>
+        <v>7131</v>
       </c>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -1021,34 +1021,34 @@
     </row>
     <row r="6" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
-        <v>2020</v>
+        <v>2100</v>
       </c>
       <c r="B6" s="1">
-        <v>6020</v>
+        <v>7015</v>
       </c>
       <c r="C6" s="1">
-        <v>3020</v>
+        <v>5020</v>
       </c>
       <c r="D6" s="1">
-        <v>7037</v>
+        <v>2030</v>
       </c>
       <c r="E6" s="1">
-        <v>7137</v>
+        <v>7183</v>
       </c>
       <c r="F6" s="1">
-        <v>5010</v>
+        <v>5080</v>
       </c>
       <c r="G6" s="1">
-        <v>1020</v>
+        <v>1040</v>
       </c>
       <c r="H6" s="1">
-        <v>5020</v>
+        <v>1040</v>
       </c>
       <c r="I6" s="1">
-        <v>2030</v>
+        <v>7023</v>
       </c>
       <c r="J6" s="1">
-        <v>4002</v>
+        <v>6030</v>
       </c>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -1143,34 +1143,34 @@
     </row>
     <row r="7" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
-        <v>2020</v>
+        <v>4001</v>
       </c>
       <c r="B7" s="1">
-        <v>6020</v>
+        <v>4006</v>
       </c>
       <c r="C7" s="1">
-        <v>3020</v>
+        <v>8999</v>
       </c>
       <c r="D7" s="1">
-        <v>7044</v>
+        <v>1080</v>
       </c>
       <c r="E7" s="1">
-        <v>7144</v>
+        <v>1030</v>
       </c>
       <c r="F7" s="1">
+        <v>2040</v>
+      </c>
+      <c r="G7" s="1">
         <v>5010</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1020</v>
-      </c>
-      <c r="H7" s="1">
-        <v>5020</v>
       </c>
       <c r="I7" s="1">
         <v>3030</v>
       </c>
       <c r="J7" s="1">
-        <v>4002</v>
+        <v>7157</v>
       </c>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -1265,34 +1265,34 @@
     </row>
     <row r="8" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
-        <v>1030</v>
+        <v>5010</v>
       </c>
       <c r="B8" s="1">
-        <v>7161</v>
+        <v>4004</v>
       </c>
       <c r="C8" s="1">
-        <v>8999</v>
+        <v>7081</v>
       </c>
       <c r="D8" s="1">
-        <v>7061</v>
+        <v>7065</v>
       </c>
       <c r="E8" s="1">
         <v>6030</v>
       </c>
       <c r="F8" s="1">
-        <v>2030</v>
+        <v>2040</v>
       </c>
       <c r="G8" s="1">
-        <v>5030</v>
+        <v>3060</v>
       </c>
       <c r="H8" s="1">
-        <v>3030</v>
+        <v>6060</v>
       </c>
       <c r="I8" s="1">
-        <v>4003</v>
+        <v>7185</v>
       </c>
       <c r="J8" s="1">
-        <v>4003</v>
+        <v>2010</v>
       </c>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -1387,34 +1387,34 @@
     </row>
     <row r="9" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
-        <v>1010</v>
+        <v>2020</v>
       </c>
       <c r="B9" s="1">
-        <v>7053</v>
+        <v>7043</v>
       </c>
       <c r="C9" s="1">
-        <v>5020</v>
+        <v>3020</v>
       </c>
       <c r="D9" s="1">
         <v>2020</v>
       </c>
       <c r="E9" s="1">
-        <v>6020</v>
+        <v>4003</v>
       </c>
       <c r="F9" s="1">
         <v>4002</v>
       </c>
       <c r="G9" s="1">
-        <v>3020</v>
+        <v>5030</v>
       </c>
       <c r="H9" s="1">
-        <v>1020</v>
+        <v>7113</v>
       </c>
       <c r="I9" s="1">
-        <v>3030</v>
+        <v>2030</v>
       </c>
       <c r="J9" s="1">
-        <v>7153</v>
+        <v>7147</v>
       </c>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -1509,34 +1509,34 @@
     </row>
     <row r="10" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
+        <v>5010</v>
+      </c>
+      <c r="B10" s="1">
+        <v>3010</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>6040</v>
+      </c>
+      <c r="E10" s="1">
+        <v>7191</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2030</v>
+      </c>
+      <c r="G10" s="1">
+        <v>3010</v>
+      </c>
+      <c r="H10" s="1">
+        <v>7050</v>
+      </c>
+      <c r="I10" s="1">
         <v>4004</v>
       </c>
-      <c r="B10" s="1">
-        <v>2040</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7090</v>
-      </c>
-      <c r="D10" s="1">
-        <v>5040</v>
-      </c>
-      <c r="E10" s="1">
-        <v>3040</v>
-      </c>
-      <c r="F10" s="1">
-        <v>6040</v>
-      </c>
-      <c r="G10" s="1">
-        <v>9999</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1040</v>
-      </c>
-      <c r="I10" s="1">
-        <v>7190</v>
-      </c>
       <c r="J10" s="1">
-        <v>5030</v>
+        <v>6030</v>
       </c>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1631,34 +1631,34 @@
     </row>
     <row r="11" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
-        <v>7082</v>
+        <v>4001</v>
       </c>
       <c r="B11" s="1">
-        <v>5030</v>
+        <v>4001</v>
       </c>
       <c r="C11" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D11" s="1">
         <v>5040</v>
       </c>
-      <c r="D11" s="1">
-        <v>6040</v>
-      </c>
       <c r="E11" s="1">
-        <v>7182</v>
+        <v>7028</v>
       </c>
       <c r="F11" s="1">
-        <v>2040</v>
+        <v>5010</v>
       </c>
       <c r="G11" s="1">
-        <v>1040</v>
+        <v>1020</v>
       </c>
       <c r="H11" s="1">
-        <v>3040</v>
+        <v>8999</v>
       </c>
       <c r="I11" s="1">
-        <v>4004</v>
+        <v>6020</v>
       </c>
       <c r="J11" s="1">
-        <v>8999</v>
+        <v>4003</v>
       </c>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1753,34 +1753,34 @@
     </row>
     <row r="12" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
-        <v>1010</v>
+        <v>2020</v>
       </c>
       <c r="B12" s="1">
-        <v>4001</v>
+        <v>5030</v>
       </c>
       <c r="C12" s="1">
+        <v>5020</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E12" s="1">
+        <v>3040</v>
+      </c>
+      <c r="F12" s="1">
+        <v>4003</v>
+      </c>
+      <c r="G12" s="1">
         <v>5010</v>
       </c>
-      <c r="D12" s="1">
-        <v>2030</v>
-      </c>
-      <c r="E12" s="1">
-        <v>2010</v>
-      </c>
-      <c r="F12" s="1">
-        <v>6010</v>
-      </c>
-      <c r="G12" s="1">
-        <v>3010</v>
-      </c>
       <c r="H12" s="1">
-        <v>7120</v>
+        <v>6030</v>
       </c>
       <c r="I12" s="1">
-        <v>7020</v>
+        <v>5030</v>
       </c>
       <c r="J12" s="1">
-        <v>4001</v>
+        <v>5020</v>
       </c>
       <c r="K12" s="1"/>
     </row>
@@ -1789,220 +1789,220 @@
         <v>2020</v>
       </c>
       <c r="B13" s="1">
-        <v>6020</v>
+        <v>7054</v>
       </c>
       <c r="C13" s="1">
         <v>3020</v>
       </c>
       <c r="D13" s="1">
-        <v>7034</v>
+        <v>1030</v>
       </c>
       <c r="E13" s="1">
-        <v>7134</v>
+        <v>2030</v>
       </c>
       <c r="F13" s="1">
-        <v>4002</v>
+        <v>3010</v>
       </c>
       <c r="G13" s="1">
-        <v>1020</v>
+        <v>7075</v>
       </c>
       <c r="H13" s="1">
+        <v>8999</v>
+      </c>
+      <c r="I13" s="1">
+        <v>6020</v>
+      </c>
+      <c r="J13" s="1">
         <v>5020</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2030</v>
-      </c>
-      <c r="J13" s="1">
-        <v>4002</v>
       </c>
       <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
-        <v>5030</v>
+        <v>2080</v>
       </c>
       <c r="B14" s="1">
-        <v>7168</v>
+        <v>7173</v>
       </c>
       <c r="C14" s="1">
-        <v>3030</v>
+        <v>5010</v>
       </c>
       <c r="D14" s="1">
-        <v>1030</v>
+        <v>1060</v>
       </c>
       <c r="E14" s="1">
-        <v>4003</v>
+        <v>7007</v>
       </c>
       <c r="F14" s="1">
-        <v>4003</v>
+        <v>3010</v>
       </c>
       <c r="G14" s="1">
-        <v>7068</v>
+        <v>4002</v>
       </c>
       <c r="H14" s="1">
         <v>8999</v>
       </c>
       <c r="I14" s="1">
-        <v>2030</v>
+        <v>7184</v>
       </c>
       <c r="J14" s="1">
-        <v>6030</v>
+        <v>7093</v>
       </c>
       <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A15" s="1">
-        <v>5030</v>
+        <v>2020</v>
       </c>
       <c r="B15" s="1">
-        <v>7180</v>
+        <v>6020</v>
       </c>
       <c r="C15" s="1">
-        <v>3030</v>
+        <v>5010</v>
       </c>
       <c r="D15" s="1">
-        <v>1030</v>
+        <v>7049</v>
       </c>
       <c r="E15" s="1">
-        <v>5030</v>
+        <v>6030</v>
       </c>
       <c r="F15" s="1">
-        <v>4003</v>
+        <v>2030</v>
       </c>
       <c r="G15" s="1">
-        <v>7080</v>
+        <v>1040</v>
       </c>
       <c r="H15" s="1">
-        <v>8999</v>
+        <v>1020</v>
       </c>
       <c r="I15" s="1">
-        <v>2030</v>
+        <v>6030</v>
       </c>
       <c r="J15" s="1">
-        <v>6030</v>
+        <v>5020</v>
       </c>
       <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:100" x14ac:dyDescent="0.15">
       <c r="A16" s="1">
-        <v>2020</v>
+        <v>1010</v>
       </c>
       <c r="B16" s="1">
-        <v>3030</v>
+        <v>4004</v>
       </c>
       <c r="C16" s="1">
-        <v>3020</v>
+        <v>5010</v>
       </c>
       <c r="D16" s="1">
-        <v>1020</v>
+        <v>7040</v>
       </c>
       <c r="E16" s="1">
-        <v>7156</v>
+        <v>6030</v>
       </c>
       <c r="F16" s="1">
-        <v>1010</v>
+        <v>4002</v>
       </c>
       <c r="G16" s="1">
-        <v>4002</v>
+        <v>7064</v>
       </c>
       <c r="H16" s="1">
-        <v>7056</v>
+        <v>7109</v>
       </c>
       <c r="I16" s="1">
-        <v>6020</v>
+        <v>4003</v>
       </c>
       <c r="J16" s="1">
-        <v>5020</v>
+        <v>4003</v>
       </c>
       <c r="K16" s="1"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A17" s="1">
-        <v>7087</v>
+        <v>5030</v>
       </c>
       <c r="B17" s="1">
-        <v>5030</v>
+        <v>4001</v>
       </c>
       <c r="C17" s="1">
-        <v>5040</v>
+        <v>8999</v>
       </c>
       <c r="D17" s="1">
-        <v>6040</v>
+        <v>2030</v>
       </c>
       <c r="E17" s="1">
-        <v>7187</v>
+        <v>6020</v>
       </c>
       <c r="F17" s="1">
-        <v>2040</v>
+        <v>4003</v>
       </c>
       <c r="G17" s="1">
-        <v>1040</v>
+        <v>4002</v>
       </c>
       <c r="H17" s="1">
-        <v>3040</v>
+        <v>4001</v>
       </c>
       <c r="I17" s="1">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="J17" s="1">
-        <v>9999</v>
+        <v>7143</v>
       </c>
       <c r="K17" s="1"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A18" s="1">
-        <v>2080</v>
+        <v>1010</v>
       </c>
       <c r="B18" s="1">
-        <v>4006</v>
+        <v>7174</v>
       </c>
       <c r="C18" s="1">
+        <v>6010</v>
+      </c>
+      <c r="D18" s="1">
+        <v>6040</v>
+      </c>
+      <c r="E18" s="1">
+        <v>3040</v>
+      </c>
+      <c r="F18" s="1">
+        <v>6010</v>
+      </c>
+      <c r="G18" s="1">
+        <v>7062</v>
+      </c>
+      <c r="H18" s="1">
         <v>8999</v>
       </c>
-      <c r="D18" s="1">
-        <v>1080</v>
-      </c>
-      <c r="E18" s="1">
-        <v>7198</v>
-      </c>
-      <c r="F18" s="1">
-        <v>5080</v>
-      </c>
-      <c r="G18" s="1">
-        <v>3080</v>
-      </c>
-      <c r="H18" s="1">
-        <v>6080</v>
-      </c>
       <c r="I18" s="1">
-        <v>5030</v>
+        <v>6020</v>
       </c>
       <c r="J18" s="1">
-        <v>7098</v>
+        <v>7152</v>
       </c>
       <c r="K18" s="1"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A19" s="1">
-        <v>5030</v>
+        <v>4001</v>
       </c>
       <c r="B19" s="1">
-        <v>7169</v>
+        <v>2040</v>
       </c>
       <c r="C19" s="1">
-        <v>3030</v>
+        <v>8999</v>
       </c>
       <c r="D19" s="1">
-        <v>1030</v>
+        <v>7039</v>
       </c>
       <c r="E19" s="1">
         <v>4003</v>
       </c>
       <c r="F19" s="1">
-        <v>4003</v>
+        <v>6040</v>
       </c>
       <c r="G19" s="1">
-        <v>7069</v>
+        <v>1040</v>
       </c>
       <c r="H19" s="1">
         <v>8999</v>
@@ -2017,34 +2017,34 @@
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A20" s="1">
-        <v>4001</v>
+        <v>2060</v>
       </c>
       <c r="B20" s="1">
-        <v>3010</v>
+        <v>6020</v>
       </c>
       <c r="C20" s="1">
-        <v>6010</v>
+        <v>3020</v>
       </c>
       <c r="D20" s="1">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="E20" s="1">
-        <v>7016</v>
+        <v>6030</v>
       </c>
       <c r="F20" s="1">
-        <v>7116</v>
+        <v>8999</v>
       </c>
       <c r="G20" s="1">
-        <v>5010</v>
+        <v>1020</v>
       </c>
       <c r="H20" s="1">
-        <v>6030</v>
+        <v>7120</v>
       </c>
       <c r="I20" s="1">
-        <v>1010</v>
+        <v>7004</v>
       </c>
       <c r="J20" s="1">
-        <v>2010</v>
+        <v>7013</v>
       </c>
       <c r="K20" s="1"/>
     </row>
@@ -2056,94 +2056,94 @@
         <v>4001</v>
       </c>
       <c r="C21" s="1">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="D21" s="1">
-        <v>1030</v>
+        <v>7077</v>
       </c>
       <c r="E21" s="1">
+        <v>7133</v>
+      </c>
+      <c r="F21" s="1">
+        <v>7102</v>
+      </c>
+      <c r="G21" s="1">
+        <v>3020</v>
+      </c>
+      <c r="H21" s="1">
+        <v>6060</v>
+      </c>
+      <c r="I21" s="1">
+        <v>5030</v>
+      </c>
+      <c r="J21" s="1">
         <v>2010</v>
-      </c>
-      <c r="F21" s="1">
-        <v>6010</v>
-      </c>
-      <c r="G21" s="1">
-        <v>3010</v>
-      </c>
-      <c r="H21" s="1">
-        <v>7119</v>
-      </c>
-      <c r="I21" s="1">
-        <v>7019</v>
-      </c>
-      <c r="J21" s="1">
-        <v>6030</v>
       </c>
       <c r="K21" s="1"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A22" s="1">
-        <v>7089</v>
+        <v>1030</v>
       </c>
       <c r="B22" s="1">
-        <v>5030</v>
+        <v>6020</v>
       </c>
       <c r="C22" s="1">
-        <v>5040</v>
+        <v>6010</v>
       </c>
       <c r="D22" s="1">
-        <v>6040</v>
+        <v>6010</v>
       </c>
       <c r="E22" s="1">
-        <v>7189</v>
+        <v>7144</v>
       </c>
       <c r="F22" s="1">
-        <v>2040</v>
+        <v>5020</v>
       </c>
       <c r="G22" s="1">
-        <v>1040</v>
+        <v>5010</v>
       </c>
       <c r="H22" s="1">
-        <v>3040</v>
+        <v>7117</v>
       </c>
       <c r="I22" s="1">
-        <v>4004</v>
+        <v>6020</v>
       </c>
       <c r="J22" s="1">
-        <v>9999</v>
+        <v>6030</v>
       </c>
       <c r="K22" s="1"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A23" s="1">
-        <v>1010</v>
+        <v>4001</v>
       </c>
       <c r="B23" s="1">
         <v>4001</v>
       </c>
       <c r="C23" s="1">
-        <v>3010</v>
+        <v>6010</v>
       </c>
       <c r="D23" s="1">
-        <v>6010</v>
+        <v>7037</v>
       </c>
       <c r="E23" s="1">
-        <v>1030</v>
+        <v>7026</v>
       </c>
       <c r="F23" s="1">
         <v>5010</v>
       </c>
       <c r="G23" s="1">
-        <v>2010</v>
+        <v>3010</v>
       </c>
       <c r="H23" s="1">
-        <v>7118</v>
+        <v>3030</v>
       </c>
       <c r="I23" s="1">
-        <v>6030</v>
+        <v>1010</v>
       </c>
       <c r="J23" s="1">
-        <v>7018</v>
+        <v>5020</v>
       </c>
       <c r="K23" s="1"/>
     </row>
@@ -2152,160 +2152,160 @@
         <v>1010</v>
       </c>
       <c r="B24" s="1">
+        <v>2030</v>
+      </c>
+      <c r="C24" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E24" s="1">
+        <v>6020</v>
+      </c>
+      <c r="F24" s="1">
+        <v>4002</v>
+      </c>
+      <c r="G24" s="1">
+        <v>9999</v>
+      </c>
+      <c r="H24" s="1">
+        <v>5020</v>
+      </c>
+      <c r="I24" s="1">
+        <v>2030</v>
+      </c>
+      <c r="J24" s="1">
         <v>4001</v>
-      </c>
-      <c r="C24" s="1">
-        <v>3010</v>
-      </c>
-      <c r="D24" s="1">
-        <v>6010</v>
-      </c>
-      <c r="E24" s="1">
-        <v>1030</v>
-      </c>
-      <c r="F24" s="1">
-        <v>5010</v>
-      </c>
-      <c r="G24" s="1">
-        <v>2010</v>
-      </c>
-      <c r="H24" s="1">
-        <v>7113</v>
-      </c>
-      <c r="I24" s="1">
-        <v>6030</v>
-      </c>
-      <c r="J24" s="1">
-        <v>7013</v>
       </c>
       <c r="K24" s="1"/>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A25" s="1">
-        <v>5030</v>
+        <v>4004</v>
       </c>
       <c r="B25" s="1">
-        <v>7175</v>
+        <v>2040</v>
       </c>
       <c r="C25" s="1">
-        <v>3030</v>
+        <v>5020</v>
       </c>
       <c r="D25" s="1">
-        <v>1030</v>
+        <v>7079</v>
       </c>
       <c r="E25" s="1">
-        <v>4003</v>
+        <v>7002</v>
       </c>
       <c r="F25" s="1">
-        <v>4003</v>
+        <v>6010</v>
       </c>
       <c r="G25" s="1">
-        <v>7075</v>
+        <v>3020</v>
       </c>
       <c r="H25" s="1">
-        <v>8999</v>
+        <v>7045</v>
       </c>
       <c r="I25" s="1">
-        <v>2030</v>
+        <v>7181</v>
       </c>
       <c r="J25" s="1">
-        <v>6030</v>
+        <v>5020</v>
       </c>
       <c r="K25" s="1"/>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A26" s="1">
-        <v>2060</v>
+        <v>4004</v>
       </c>
       <c r="B26" s="1">
-        <v>4004</v>
+        <v>2030</v>
       </c>
       <c r="C26" s="1">
-        <v>8999</v>
+        <v>5010</v>
       </c>
       <c r="D26" s="1">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="E26" s="1">
-        <v>7192</v>
+        <v>7199</v>
       </c>
       <c r="F26" s="1">
-        <v>5060</v>
+        <v>4003</v>
       </c>
       <c r="G26" s="1">
-        <v>3060</v>
+        <v>5030</v>
       </c>
       <c r="H26" s="1">
-        <v>6060</v>
+        <v>6030</v>
       </c>
       <c r="I26" s="1">
         <v>5030</v>
       </c>
       <c r="J26" s="1">
-        <v>7092</v>
+        <v>5020</v>
       </c>
       <c r="K26" s="1"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A27" s="1">
-        <v>5030</v>
+        <v>2020</v>
       </c>
       <c r="B27" s="1">
-        <v>7164</v>
+        <v>7052</v>
       </c>
       <c r="C27" s="1">
-        <v>3030</v>
+        <v>3020</v>
       </c>
       <c r="D27" s="1">
-        <v>1030</v>
+        <v>2030</v>
       </c>
       <c r="E27" s="1">
         <v>4003</v>
       </c>
       <c r="F27" s="1">
-        <v>4003</v>
+        <v>2030</v>
       </c>
       <c r="G27" s="1">
-        <v>7064</v>
+        <v>9999</v>
       </c>
       <c r="H27" s="1">
-        <v>8999</v>
+        <v>4001</v>
       </c>
       <c r="I27" s="1">
-        <v>2030</v>
+        <v>1010</v>
       </c>
       <c r="J27" s="1">
-        <v>6030</v>
+        <v>4001</v>
       </c>
       <c r="K27" s="1"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A28" s="1">
-        <v>4004</v>
+        <v>2060</v>
       </c>
       <c r="B28" s="1">
-        <v>2040</v>
+        <v>3030</v>
       </c>
       <c r="C28" s="1">
-        <v>7085</v>
+        <v>8999</v>
       </c>
       <c r="D28" s="1">
         <v>5040</v>
       </c>
       <c r="E28" s="1">
-        <v>3040</v>
+        <v>4003</v>
       </c>
       <c r="F28" s="1">
-        <v>6040</v>
+        <v>7126</v>
       </c>
       <c r="G28" s="1">
-        <v>9999</v>
+        <v>5030</v>
       </c>
       <c r="H28" s="1">
-        <v>1040</v>
+        <v>5020</v>
       </c>
       <c r="I28" s="1">
-        <v>7185</v>
+        <v>3030</v>
       </c>
       <c r="J28" s="1">
         <v>5030</v>
@@ -2314,31 +2314,31 @@
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A29" s="1">
+        <v>5030</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2040</v>
+      </c>
+      <c r="C29" s="1">
+        <v>3030</v>
+      </c>
+      <c r="D29" s="1">
         <v>1030</v>
       </c>
-      <c r="B29" s="1">
-        <v>7177</v>
-      </c>
-      <c r="C29" s="1">
-        <v>8999</v>
-      </c>
-      <c r="D29" s="1">
-        <v>7077</v>
-      </c>
       <c r="E29" s="1">
-        <v>6030</v>
+        <v>7137</v>
       </c>
       <c r="F29" s="1">
         <v>2030</v>
       </c>
       <c r="G29" s="1">
-        <v>5030</v>
+        <v>1020</v>
       </c>
       <c r="H29" s="1">
+        <v>7058</v>
+      </c>
+      <c r="I29" s="1">
         <v>3030</v>
-      </c>
-      <c r="I29" s="1">
-        <v>4003</v>
       </c>
       <c r="J29" s="1">
         <v>4003</v>
@@ -2347,64 +2347,64 @@
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A30" s="1">
-        <v>7083</v>
+        <v>2010</v>
       </c>
       <c r="B30" s="1">
-        <v>5030</v>
+        <v>4001</v>
       </c>
       <c r="C30" s="1">
+        <v>3030</v>
+      </c>
+      <c r="D30" s="1">
         <v>5040</v>
       </c>
-      <c r="D30" s="1">
-        <v>6040</v>
-      </c>
       <c r="E30" s="1">
-        <v>7183</v>
+        <v>7138</v>
       </c>
       <c r="F30" s="1">
-        <v>2040</v>
+        <v>4002</v>
       </c>
       <c r="G30" s="1">
-        <v>1040</v>
+        <v>3020</v>
       </c>
       <c r="H30" s="1">
-        <v>3040</v>
+        <v>5020</v>
       </c>
       <c r="I30" s="1">
-        <v>4004</v>
+        <v>1010</v>
       </c>
       <c r="J30" s="1">
-        <v>9999</v>
+        <v>5020</v>
       </c>
       <c r="K30" s="1"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A31" s="1">
-        <v>5030</v>
+        <v>1030</v>
       </c>
       <c r="B31" s="1">
-        <v>7162</v>
+        <v>3010</v>
       </c>
       <c r="C31" s="1">
+        <v>5010</v>
+      </c>
+      <c r="D31" s="1">
+        <v>2030</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1030</v>
+      </c>
+      <c r="F31" s="1">
+        <v>6040</v>
+      </c>
+      <c r="G31" s="1">
+        <v>5010</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1020</v>
+      </c>
+      <c r="I31" s="1">
         <v>3030</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1030</v>
-      </c>
-      <c r="E31" s="1">
-        <v>4003</v>
-      </c>
-      <c r="F31" s="1">
-        <v>4003</v>
-      </c>
-      <c r="G31" s="1">
-        <v>7062</v>
-      </c>
-      <c r="H31" s="1">
-        <v>8999</v>
-      </c>
-      <c r="I31" s="1">
-        <v>2030</v>
       </c>
       <c r="J31" s="1">
         <v>6030</v>
@@ -2413,31 +2413,31 @@
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A32" s="1">
-        <v>4001</v>
+        <v>1010</v>
       </c>
       <c r="B32" s="1">
-        <v>3010</v>
+        <v>5030</v>
       </c>
       <c r="C32" s="1">
         <v>6010</v>
       </c>
       <c r="D32" s="1">
-        <v>2030</v>
+        <v>1030</v>
       </c>
       <c r="E32" s="1">
-        <v>7026</v>
+        <v>7192</v>
       </c>
       <c r="F32" s="1">
-        <v>7126</v>
+        <v>5010</v>
       </c>
       <c r="G32" s="1">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="H32" s="1">
-        <v>4001</v>
+        <v>5020</v>
       </c>
       <c r="I32" s="1">
-        <v>1010</v>
+        <v>5030</v>
       </c>
       <c r="J32" s="1">
         <v>2010</v>
@@ -2446,100 +2446,100 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A33" s="1">
-        <v>5010</v>
+        <v>7083</v>
       </c>
       <c r="B33" s="1">
-        <v>7047</v>
+        <v>3030</v>
       </c>
       <c r="C33" s="1">
-        <v>5020</v>
+        <v>3020</v>
       </c>
       <c r="D33" s="1">
-        <v>2020</v>
+        <v>1020</v>
       </c>
       <c r="E33" s="1">
         <v>6020</v>
       </c>
       <c r="F33" s="1">
+        <v>5060</v>
+      </c>
+      <c r="G33" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H33" s="1">
+        <v>5020</v>
+      </c>
+      <c r="I33" s="1">
+        <v>6030</v>
+      </c>
+      <c r="J33" s="1">
         <v>4002</v>
-      </c>
-      <c r="G33" s="1">
-        <v>3020</v>
-      </c>
-      <c r="H33" s="1">
-        <v>1020</v>
-      </c>
-      <c r="I33" s="1">
-        <v>3030</v>
-      </c>
-      <c r="J33" s="1">
-        <v>7147</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A34" s="1">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="B34" s="1">
         <v>4006</v>
       </c>
       <c r="C34" s="1">
+        <v>7084</v>
+      </c>
+      <c r="D34" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E34" s="1">
+        <v>3040</v>
+      </c>
+      <c r="F34" s="1">
+        <v>3010</v>
+      </c>
+      <c r="G34" s="1">
         <v>8999</v>
       </c>
-      <c r="D34" s="1">
-        <v>1080</v>
-      </c>
-      <c r="E34" s="1">
-        <v>7197</v>
-      </c>
-      <c r="F34" s="1">
-        <v>5080</v>
-      </c>
-      <c r="G34" s="1">
-        <v>3080</v>
-      </c>
       <c r="H34" s="1">
-        <v>6080</v>
+        <v>7033</v>
       </c>
       <c r="I34" s="1">
-        <v>5030</v>
+        <v>6020</v>
       </c>
       <c r="J34" s="1">
-        <v>7097</v>
+        <v>6010</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A35" s="1">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="B35" s="1">
-        <v>4001</v>
+        <v>7047</v>
       </c>
       <c r="C35" s="1">
-        <v>5010</v>
+        <v>6010</v>
       </c>
       <c r="D35" s="1">
-        <v>1030</v>
+        <v>2020</v>
       </c>
       <c r="E35" s="1">
-        <v>2010</v>
+        <v>4003</v>
       </c>
       <c r="F35" s="1">
-        <v>6010</v>
+        <v>4003</v>
       </c>
       <c r="G35" s="1">
-        <v>3010</v>
+        <v>1020</v>
       </c>
       <c r="H35" s="1">
-        <v>7109</v>
+        <v>7038</v>
       </c>
       <c r="I35" s="1">
-        <v>7009</v>
+        <v>4004</v>
       </c>
       <c r="J35" s="1">
-        <v>6030</v>
+        <v>7096</v>
       </c>
       <c r="K35" s="1"/>
     </row>
@@ -2548,58 +2548,58 @@
         <v>2020</v>
       </c>
       <c r="B36" s="1">
-        <v>2030</v>
+        <v>7031</v>
       </c>
       <c r="C36" s="1">
-        <v>3020</v>
+        <v>5040</v>
       </c>
       <c r="D36" s="1">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="E36" s="1">
-        <v>7138</v>
+        <v>7196</v>
       </c>
       <c r="F36" s="1">
-        <v>5010</v>
+        <v>2040</v>
       </c>
       <c r="G36" s="1">
+        <v>2010</v>
+      </c>
+      <c r="H36" s="1">
+        <v>8999</v>
+      </c>
+      <c r="I36" s="1">
+        <v>3030</v>
+      </c>
+      <c r="J36" s="1">
         <v>4002</v>
-      </c>
-      <c r="H36" s="1">
-        <v>7038</v>
-      </c>
-      <c r="I36" s="1">
-        <v>6020</v>
-      </c>
-      <c r="J36" s="1">
-        <v>5020</v>
       </c>
       <c r="K36" s="1"/>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A37" s="1">
-        <v>4001</v>
+        <v>1030</v>
       </c>
       <c r="B37" s="1">
-        <v>3010</v>
+        <v>4010</v>
       </c>
       <c r="C37" s="1">
-        <v>6010</v>
+        <v>5040</v>
       </c>
       <c r="D37" s="1">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="E37" s="1">
-        <v>7001</v>
+        <v>6020</v>
       </c>
       <c r="F37" s="1">
-        <v>7101</v>
+        <v>5010</v>
       </c>
       <c r="G37" s="1">
-        <v>5010</v>
+        <v>1020</v>
       </c>
       <c r="H37" s="1">
-        <v>6030</v>
+        <v>1020</v>
       </c>
       <c r="I37" s="1">
         <v>1010</v>
@@ -2611,31 +2611,31 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A38" s="1">
-        <v>2020</v>
+        <v>1010</v>
       </c>
       <c r="B38" s="1">
+        <v>3010</v>
+      </c>
+      <c r="C38" s="1">
         <v>3030</v>
       </c>
-      <c r="C38" s="1">
-        <v>3020</v>
-      </c>
       <c r="D38" s="1">
-        <v>1020</v>
+        <v>2030</v>
       </c>
       <c r="E38" s="1">
-        <v>7141</v>
+        <v>2030</v>
       </c>
       <c r="F38" s="1">
-        <v>5010</v>
+        <v>4003</v>
       </c>
       <c r="G38" s="1">
-        <v>4002</v>
+        <v>3010</v>
       </c>
       <c r="H38" s="1">
-        <v>7041</v>
+        <v>7032</v>
       </c>
       <c r="I38" s="1">
-        <v>6020</v>
+        <v>1010</v>
       </c>
       <c r="J38" s="1">
         <v>5020</v>
@@ -2644,64 +2644,64 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A39" s="1">
-        <v>1030</v>
+        <v>5030</v>
       </c>
       <c r="B39" s="1">
-        <v>7170</v>
+        <v>7055</v>
       </c>
       <c r="C39" s="1">
         <v>8999</v>
       </c>
       <c r="D39" s="1">
-        <v>7070</v>
+        <v>7044</v>
       </c>
       <c r="E39" s="1">
-        <v>6030</v>
+        <v>7001</v>
       </c>
       <c r="F39" s="1">
-        <v>2030</v>
+        <v>8999</v>
       </c>
       <c r="G39" s="1">
         <v>5030</v>
       </c>
       <c r="H39" s="1">
-        <v>3030</v>
+        <v>8999</v>
       </c>
       <c r="I39" s="1">
-        <v>4003</v>
+        <v>7188</v>
       </c>
       <c r="J39" s="1">
-        <v>4003</v>
+        <v>2010</v>
       </c>
       <c r="K39" s="1"/>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A40" s="1">
-        <v>2020</v>
+        <v>1010</v>
       </c>
       <c r="B40" s="1">
         <v>6020</v>
       </c>
       <c r="C40" s="1">
-        <v>3020</v>
+        <v>5010</v>
       </c>
       <c r="D40" s="1">
-        <v>7049</v>
+        <v>2020</v>
       </c>
       <c r="E40" s="1">
-        <v>7149</v>
+        <v>2010</v>
       </c>
       <c r="F40" s="1">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="G40" s="1">
         <v>1020</v>
       </c>
       <c r="H40" s="1">
-        <v>5020</v>
+        <v>7115</v>
       </c>
       <c r="I40" s="1">
-        <v>3030</v>
+        <v>7019</v>
       </c>
       <c r="J40" s="1">
         <v>4002</v>
@@ -2710,97 +2710,97 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A41" s="1">
-        <v>4001</v>
+        <v>5030</v>
       </c>
       <c r="B41" s="1">
         <v>3010</v>
       </c>
       <c r="C41" s="1">
-        <v>6010</v>
+        <v>3010</v>
       </c>
       <c r="D41" s="1">
         <v>1030</v>
       </c>
       <c r="E41" s="1">
-        <v>7010</v>
+        <v>7187</v>
       </c>
       <c r="F41" s="1">
-        <v>7110</v>
+        <v>4002</v>
       </c>
       <c r="G41" s="1">
         <v>5010</v>
       </c>
       <c r="H41" s="1">
-        <v>6030</v>
+        <v>3030</v>
       </c>
       <c r="I41" s="1">
-        <v>1010</v>
+        <v>4003</v>
       </c>
       <c r="J41" s="1">
-        <v>2010</v>
+        <v>7154</v>
       </c>
       <c r="K41" s="1"/>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A42" s="1">
-        <v>4001</v>
+        <v>1030</v>
       </c>
       <c r="B42" s="1">
-        <v>3010</v>
+        <v>3030</v>
       </c>
       <c r="C42" s="1">
-        <v>6010</v>
+        <v>3030</v>
       </c>
       <c r="D42" s="1">
-        <v>1030</v>
+        <v>1100</v>
       </c>
       <c r="E42" s="1">
-        <v>7002</v>
+        <v>2030</v>
       </c>
       <c r="F42" s="1">
-        <v>7102</v>
+        <v>2030</v>
       </c>
       <c r="G42" s="1">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="H42" s="1">
-        <v>6030</v>
+        <v>6060</v>
       </c>
       <c r="I42" s="1">
-        <v>1010</v>
+        <v>4004</v>
       </c>
       <c r="J42" s="1">
-        <v>2010</v>
+        <v>7097</v>
       </c>
       <c r="K42" s="1"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A43" s="1">
-        <v>1010</v>
+        <v>4004</v>
       </c>
       <c r="B43" s="1">
-        <v>4001</v>
+        <v>7006</v>
       </c>
       <c r="C43" s="1">
-        <v>5010</v>
+        <v>6010</v>
       </c>
       <c r="D43" s="1">
         <v>1030</v>
       </c>
       <c r="E43" s="1">
-        <v>2010</v>
+        <v>7198</v>
       </c>
       <c r="F43" s="1">
-        <v>6010</v>
+        <v>4002</v>
       </c>
       <c r="G43" s="1">
-        <v>3010</v>
+        <v>3100</v>
       </c>
       <c r="H43" s="1">
-        <v>7117</v>
+        <v>3030</v>
       </c>
       <c r="I43" s="1">
-        <v>7017</v>
+        <v>1010</v>
       </c>
       <c r="J43" s="1">
         <v>6030</v>
@@ -2809,31 +2809,31 @@
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A44" s="1">
+        <v>5030</v>
+      </c>
+      <c r="B44" s="1">
         <v>4001</v>
       </c>
-      <c r="B44" s="1">
-        <v>3010</v>
-      </c>
       <c r="C44" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7076</v>
+      </c>
+      <c r="E44" s="1">
+        <v>4003</v>
+      </c>
+      <c r="F44" s="1">
         <v>6010</v>
       </c>
-      <c r="D44" s="1">
-        <v>2030</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7025</v>
-      </c>
-      <c r="F44" s="1">
-        <v>7125</v>
-      </c>
       <c r="G44" s="1">
-        <v>5010</v>
+        <v>1020</v>
       </c>
       <c r="H44" s="1">
-        <v>4001</v>
+        <v>6030</v>
       </c>
       <c r="I44" s="1">
-        <v>1010</v>
+        <v>4003</v>
       </c>
       <c r="J44" s="1">
         <v>2010</v>
@@ -2842,133 +2842,133 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A45" s="1">
-        <v>4002</v>
+        <v>2060</v>
       </c>
       <c r="B45" s="1">
-        <v>7031</v>
+        <v>4004</v>
       </c>
       <c r="C45" s="1">
-        <v>5020</v>
+        <v>3020</v>
       </c>
       <c r="D45" s="1">
-        <v>2020</v>
+        <v>1020</v>
       </c>
       <c r="E45" s="1">
-        <v>6020</v>
+        <v>7145</v>
       </c>
       <c r="F45" s="1">
-        <v>4002</v>
+        <v>7128</v>
       </c>
       <c r="G45" s="1">
         <v>3020</v>
       </c>
       <c r="H45" s="1">
-        <v>1020</v>
+        <v>7129</v>
       </c>
       <c r="I45" s="1">
-        <v>2030</v>
+        <v>7190</v>
       </c>
       <c r="J45" s="1">
-        <v>7131</v>
+        <v>4003</v>
       </c>
       <c r="K45" s="1"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A46" s="1">
-        <v>2060</v>
+        <v>5020</v>
       </c>
       <c r="B46" s="1">
-        <v>4004</v>
+        <v>3010</v>
       </c>
       <c r="C46" s="1">
-        <v>8999</v>
+        <v>5020</v>
       </c>
       <c r="D46" s="1">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="E46" s="1">
-        <v>7191</v>
+        <v>7186</v>
       </c>
       <c r="F46" s="1">
-        <v>5060</v>
+        <v>4003</v>
       </c>
       <c r="G46" s="1">
-        <v>3060</v>
+        <v>5010</v>
       </c>
       <c r="H46" s="1">
-        <v>6060</v>
+        <v>1020</v>
       </c>
       <c r="I46" s="1">
-        <v>5030</v>
+        <v>6020</v>
       </c>
       <c r="J46" s="1">
-        <v>7091</v>
+        <v>6030</v>
       </c>
       <c r="K46" s="1"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A47" s="1">
-        <v>2020</v>
+        <v>4001</v>
       </c>
       <c r="B47" s="1">
-        <v>3030</v>
+        <v>5030</v>
       </c>
       <c r="C47" s="1">
         <v>3020</v>
       </c>
       <c r="D47" s="1">
-        <v>1020</v>
+        <v>7034</v>
       </c>
       <c r="E47" s="1">
-        <v>7145</v>
+        <v>1030</v>
       </c>
       <c r="F47" s="1">
         <v>5010</v>
       </c>
       <c r="G47" s="1">
-        <v>4002</v>
+        <v>5010</v>
       </c>
       <c r="H47" s="1">
-        <v>7045</v>
+        <v>5020</v>
       </c>
       <c r="I47" s="1">
-        <v>6020</v>
+        <v>4003</v>
       </c>
       <c r="J47" s="1">
-        <v>5020</v>
+        <v>2010</v>
       </c>
       <c r="K47" s="1"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A48" s="1">
-        <v>8999</v>
+        <v>4001</v>
       </c>
       <c r="B48" s="1">
-        <v>7057</v>
+        <v>6020</v>
       </c>
       <c r="C48" s="1">
-        <v>5020</v>
+        <v>4001</v>
       </c>
       <c r="D48" s="1">
-        <v>2020</v>
+        <v>1020</v>
       </c>
       <c r="E48" s="1">
-        <v>6020</v>
+        <v>7146</v>
       </c>
       <c r="F48" s="1">
-        <v>4002</v>
+        <v>6010</v>
       </c>
       <c r="G48" s="1">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="H48" s="1">
-        <v>1020</v>
+        <v>4001</v>
       </c>
       <c r="I48" s="1">
-        <v>3030</v>
+        <v>2030</v>
       </c>
       <c r="J48" s="1">
-        <v>7157</v>
+        <v>6030</v>
       </c>
       <c r="K48" s="1"/>
     </row>
@@ -2977,64 +2977,64 @@
         <v>1010</v>
       </c>
       <c r="B49" s="1">
-        <v>7052</v>
+        <v>4001</v>
       </c>
       <c r="C49" s="1">
-        <v>5020</v>
+        <v>3020</v>
       </c>
       <c r="D49" s="1">
-        <v>2020</v>
+        <v>6040</v>
       </c>
       <c r="E49" s="1">
         <v>6020</v>
       </c>
       <c r="F49" s="1">
-        <v>4002</v>
+        <v>6010</v>
       </c>
       <c r="G49" s="1">
         <v>3020</v>
       </c>
       <c r="H49" s="1">
-        <v>1020</v>
+        <v>7105</v>
       </c>
       <c r="I49" s="1">
-        <v>3030</v>
+        <v>2030</v>
       </c>
       <c r="J49" s="1">
-        <v>7152</v>
+        <v>6030</v>
       </c>
       <c r="K49" s="1"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A50" s="1">
-        <v>1010</v>
+        <v>5030</v>
       </c>
       <c r="B50" s="1">
-        <v>7055</v>
+        <v>7170</v>
       </c>
       <c r="C50" s="1">
-        <v>5020</v>
+        <v>5040</v>
       </c>
       <c r="D50" s="1">
         <v>2020</v>
       </c>
       <c r="E50" s="1">
-        <v>6020</v>
+        <v>3040</v>
       </c>
       <c r="F50" s="1">
-        <v>4002</v>
+        <v>2030</v>
       </c>
       <c r="G50" s="1">
-        <v>3020</v>
+        <v>3010</v>
       </c>
       <c r="H50" s="1">
-        <v>1020</v>
+        <v>7103</v>
       </c>
       <c r="I50" s="1">
-        <v>3030</v>
+        <v>4001</v>
       </c>
       <c r="J50" s="1">
-        <v>7155</v>
+        <v>6030</v>
       </c>
       <c r="K50" s="1"/>
     </row>
@@ -3043,163 +3043,163 @@
         <v>2020</v>
       </c>
       <c r="B51" s="1">
-        <v>6020</v>
+        <v>3010</v>
       </c>
       <c r="C51" s="1">
-        <v>3020</v>
+        <v>5010</v>
       </c>
       <c r="D51" s="1">
-        <v>7059</v>
+        <v>2020</v>
       </c>
       <c r="E51" s="1">
-        <v>7159</v>
+        <v>3040</v>
       </c>
       <c r="F51" s="1">
-        <v>8999</v>
+        <v>6040</v>
       </c>
       <c r="G51" s="1">
-        <v>1020</v>
+        <v>3060</v>
       </c>
       <c r="H51" s="1">
-        <v>5020</v>
+        <v>6030</v>
       </c>
       <c r="I51" s="1">
-        <v>3030</v>
+        <v>4002</v>
       </c>
       <c r="J51" s="1">
-        <v>4002</v>
+        <v>4003</v>
       </c>
       <c r="K51" s="1"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A52" s="1">
-        <v>1030</v>
+        <v>4002</v>
       </c>
       <c r="B52" s="1">
-        <v>7165</v>
+        <v>7053</v>
       </c>
       <c r="C52" s="1">
-        <v>8999</v>
+        <v>4001</v>
       </c>
       <c r="D52" s="1">
-        <v>7065</v>
+        <v>7059</v>
       </c>
       <c r="E52" s="1">
-        <v>6030</v>
+        <v>7136</v>
       </c>
       <c r="F52" s="1">
-        <v>2030</v>
+        <v>4002</v>
       </c>
       <c r="G52" s="1">
-        <v>5030</v>
+        <v>3010</v>
       </c>
       <c r="H52" s="1">
-        <v>3030</v>
+        <v>6100</v>
       </c>
       <c r="I52" s="1">
-        <v>4003</v>
+        <v>6020</v>
       </c>
       <c r="J52" s="1">
-        <v>4003</v>
+        <v>7091</v>
       </c>
       <c r="K52" s="1"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A53" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B53" s="1">
+        <v>7169</v>
+      </c>
+      <c r="C53" s="1">
+        <v>3020</v>
+      </c>
+      <c r="D53" s="1">
+        <v>6040</v>
+      </c>
+      <c r="E53" s="1">
         <v>2010</v>
       </c>
-      <c r="B53" s="1">
-        <v>7006</v>
-      </c>
-      <c r="C53" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D53" s="1">
-        <v>1010</v>
-      </c>
-      <c r="E53" s="1">
-        <v>1030</v>
-      </c>
       <c r="F53" s="1">
-        <v>3010</v>
+        <v>5010</v>
       </c>
       <c r="G53" s="1">
-        <v>5010</v>
+        <v>3080</v>
       </c>
       <c r="H53" s="1">
-        <v>7106</v>
+        <v>8999</v>
       </c>
       <c r="I53" s="1">
-        <v>6030</v>
+        <v>7017</v>
       </c>
       <c r="J53" s="1">
-        <v>6010</v>
+        <v>7092</v>
       </c>
       <c r="K53" s="1"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A54" s="1">
-        <v>2020</v>
+        <v>1010</v>
       </c>
       <c r="B54" s="1">
-        <v>2030</v>
+        <v>7180</v>
       </c>
       <c r="C54" s="1">
-        <v>3020</v>
+        <v>5020</v>
       </c>
       <c r="D54" s="1">
-        <v>1020</v>
+        <v>7078</v>
       </c>
       <c r="E54" s="1">
-        <v>7132</v>
+        <v>2010</v>
       </c>
       <c r="F54" s="1">
-        <v>4002</v>
+        <v>6010</v>
       </c>
       <c r="G54" s="1">
-        <v>4002</v>
+        <v>7069</v>
       </c>
       <c r="H54" s="1">
-        <v>7032</v>
+        <v>7104</v>
       </c>
       <c r="I54" s="1">
-        <v>6020</v>
+        <v>7020</v>
       </c>
       <c r="J54" s="1">
-        <v>5020</v>
+        <v>4003</v>
       </c>
       <c r="K54" s="1"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A55" s="1">
-        <v>5030</v>
+        <v>2020</v>
       </c>
       <c r="B55" s="1">
-        <v>7166</v>
+        <v>7172</v>
       </c>
       <c r="C55" s="1">
-        <v>3030</v>
+        <v>3010</v>
       </c>
       <c r="D55" s="1">
         <v>1030</v>
       </c>
       <c r="E55" s="1">
-        <v>4003</v>
+        <v>5030</v>
       </c>
       <c r="F55" s="1">
-        <v>4003</v>
+        <v>5060</v>
       </c>
       <c r="G55" s="1">
-        <v>7066</v>
+        <v>3020</v>
       </c>
       <c r="H55" s="1">
-        <v>8999</v>
+        <v>1040</v>
       </c>
       <c r="I55" s="1">
-        <v>2030</v>
+        <v>7012</v>
       </c>
       <c r="J55" s="1">
-        <v>6030</v>
+        <v>2010</v>
       </c>
       <c r="K55" s="1"/>
     </row>
@@ -3208,322 +3208,322 @@
         <v>2020</v>
       </c>
       <c r="B56" s="1">
+        <v>4001</v>
+      </c>
+      <c r="C56" s="1">
+        <v>3010</v>
+      </c>
+      <c r="D56" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E56" s="1">
+        <v>6030</v>
+      </c>
+      <c r="F56" s="1">
+        <v>1010</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5010</v>
+      </c>
+      <c r="H56" s="1">
+        <v>1020</v>
+      </c>
+      <c r="I56" s="1">
         <v>3030</v>
       </c>
-      <c r="C56" s="1">
-        <v>3020</v>
-      </c>
-      <c r="D56" s="1">
-        <v>1020</v>
-      </c>
-      <c r="E56" s="1">
-        <v>7148</v>
-      </c>
-      <c r="F56" s="1">
-        <v>5010</v>
-      </c>
-      <c r="G56" s="1">
-        <v>4002</v>
-      </c>
-      <c r="H56" s="1">
-        <v>7048</v>
-      </c>
-      <c r="I56" s="1">
-        <v>6020</v>
-      </c>
       <c r="J56" s="1">
-        <v>5020</v>
+        <v>7018</v>
       </c>
       <c r="K56" s="1"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A57" s="1">
-        <v>2060</v>
+        <v>7086</v>
       </c>
       <c r="B57" s="1">
-        <v>4004</v>
+        <v>7030</v>
       </c>
       <c r="C57" s="1">
-        <v>8999</v>
+        <v>3020</v>
       </c>
       <c r="D57" s="1">
-        <v>1060</v>
+        <v>1020</v>
       </c>
       <c r="E57" s="1">
-        <v>7195</v>
+        <v>7132</v>
       </c>
       <c r="F57" s="1">
-        <v>5060</v>
+        <v>5010</v>
       </c>
       <c r="G57" s="1">
-        <v>3060</v>
+        <v>1040</v>
       </c>
       <c r="H57" s="1">
-        <v>6060</v>
+        <v>7100</v>
       </c>
       <c r="I57" s="1">
-        <v>5030</v>
+        <v>4003</v>
       </c>
       <c r="J57" s="1">
-        <v>7095</v>
+        <v>4002</v>
       </c>
       <c r="K57" s="1"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A58" s="1">
-        <v>5010</v>
+        <v>1010</v>
       </c>
       <c r="B58" s="1">
-        <v>7043</v>
+        <v>7051</v>
       </c>
       <c r="C58" s="1">
-        <v>5020</v>
+        <v>7090</v>
       </c>
       <c r="D58" s="1">
         <v>2020</v>
       </c>
       <c r="E58" s="1">
-        <v>6020</v>
+        <v>7139</v>
       </c>
       <c r="F58" s="1">
+        <v>5060</v>
+      </c>
+      <c r="G58" s="1">
+        <v>7074</v>
+      </c>
+      <c r="H58" s="1">
+        <v>7036</v>
+      </c>
+      <c r="I58" s="1">
+        <v>7009</v>
+      </c>
+      <c r="J58" s="1">
         <v>4002</v>
-      </c>
-      <c r="G58" s="1">
-        <v>3020</v>
-      </c>
-      <c r="H58" s="1">
-        <v>1020</v>
-      </c>
-      <c r="I58" s="1">
-        <v>3030</v>
-      </c>
-      <c r="J58" s="1">
-        <v>7143</v>
       </c>
       <c r="K58" s="1"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A59" s="1">
-        <v>1010</v>
+        <v>2020</v>
       </c>
       <c r="B59" s="1">
-        <v>4001</v>
+        <v>3030</v>
       </c>
       <c r="C59" s="1">
         <v>3010</v>
       </c>
       <c r="D59" s="1">
-        <v>6010</v>
+        <v>1060</v>
       </c>
       <c r="E59" s="1">
-        <v>1030</v>
+        <v>6030</v>
       </c>
       <c r="F59" s="1">
+        <v>5080</v>
+      </c>
+      <c r="G59" s="1">
         <v>5010</v>
       </c>
-      <c r="G59" s="1">
-        <v>2010</v>
-      </c>
       <c r="H59" s="1">
-        <v>7103</v>
+        <v>1040</v>
       </c>
       <c r="I59" s="1">
-        <v>6030</v>
+        <v>5030</v>
       </c>
       <c r="J59" s="1">
-        <v>7003</v>
+        <v>9999</v>
       </c>
       <c r="K59" s="1"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A60" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B60" s="1">
+        <v>7161</v>
+      </c>
+      <c r="C60" s="1">
+        <v>3020</v>
+      </c>
+      <c r="D60" s="1">
+        <v>6010</v>
+      </c>
+      <c r="E60" s="1">
         <v>1030</v>
       </c>
-      <c r="B60" s="1">
-        <v>7176</v>
-      </c>
-      <c r="C60" s="1">
+      <c r="F60" s="1">
+        <v>7116</v>
+      </c>
+      <c r="G60" s="1">
+        <v>7080</v>
+      </c>
+      <c r="H60" s="1">
         <v>8999</v>
-      </c>
-      <c r="D60" s="1">
-        <v>7076</v>
-      </c>
-      <c r="E60" s="1">
-        <v>6030</v>
-      </c>
-      <c r="F60" s="1">
-        <v>2030</v>
-      </c>
-      <c r="G60" s="1">
-        <v>5030</v>
-      </c>
-      <c r="H60" s="1">
-        <v>3030</v>
       </c>
       <c r="I60" s="1">
         <v>4003</v>
       </c>
       <c r="J60" s="1">
-        <v>4003</v>
+        <v>5030</v>
       </c>
       <c r="K60" s="1"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A61" s="1">
-        <v>4004</v>
+        <v>1030</v>
       </c>
       <c r="B61" s="1">
-        <v>2040</v>
+        <v>7176</v>
       </c>
       <c r="C61" s="1">
-        <v>7084</v>
+        <v>8999</v>
       </c>
       <c r="D61" s="1">
         <v>5040</v>
       </c>
       <c r="E61" s="1">
-        <v>3040</v>
+        <v>6020</v>
       </c>
       <c r="F61" s="1">
-        <v>6040</v>
+        <v>2030</v>
       </c>
       <c r="G61" s="1">
-        <v>9999</v>
+        <v>7072</v>
       </c>
       <c r="H61" s="1">
-        <v>1040</v>
+        <v>7048</v>
       </c>
       <c r="I61" s="1">
-        <v>7184</v>
+        <v>6020</v>
       </c>
       <c r="J61" s="1">
-        <v>5030</v>
+        <v>4003</v>
       </c>
       <c r="K61" s="1"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A62" s="1">
-        <v>1030</v>
+        <v>2020</v>
       </c>
       <c r="B62" s="1">
-        <v>7171</v>
+        <v>7167</v>
       </c>
       <c r="C62" s="1">
-        <v>8999</v>
+        <v>3010</v>
       </c>
       <c r="D62" s="1">
-        <v>7071</v>
+        <v>1010</v>
       </c>
       <c r="E62" s="1">
-        <v>6030</v>
+        <v>2010</v>
       </c>
       <c r="F62" s="1">
-        <v>2030</v>
+        <v>5010</v>
       </c>
       <c r="G62" s="1">
-        <v>5030</v>
+        <v>5010</v>
       </c>
       <c r="H62" s="1">
-        <v>3030</v>
+        <v>5020</v>
       </c>
       <c r="I62" s="1">
-        <v>4003</v>
+        <v>1010</v>
       </c>
       <c r="J62" s="1">
-        <v>4003</v>
+        <v>6010</v>
       </c>
       <c r="K62" s="1"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A63" s="1">
-        <v>7086</v>
+        <v>2020</v>
       </c>
       <c r="B63" s="1">
-        <v>5030</v>
+        <v>2040</v>
       </c>
       <c r="C63" s="1">
-        <v>5040</v>
+        <v>3020</v>
       </c>
       <c r="D63" s="1">
-        <v>6040</v>
+        <v>1020</v>
       </c>
       <c r="E63" s="1">
-        <v>7186</v>
+        <v>7149</v>
       </c>
       <c r="F63" s="1">
-        <v>2040</v>
+        <v>5060</v>
       </c>
       <c r="G63" s="1">
-        <v>1040</v>
+        <v>4002</v>
       </c>
       <c r="H63" s="1">
-        <v>3040</v>
+        <v>7127</v>
       </c>
       <c r="I63" s="1">
         <v>4004</v>
       </c>
       <c r="J63" s="1">
-        <v>9999</v>
+        <v>7153</v>
       </c>
       <c r="K63" s="1"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A64" s="1">
-        <v>4001</v>
+        <v>2020</v>
       </c>
       <c r="B64" s="1">
-        <v>3010</v>
+        <v>7027</v>
       </c>
       <c r="C64" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D64" s="1">
         <v>6010</v>
       </c>
-      <c r="D64" s="1">
-        <v>1030</v>
-      </c>
       <c r="E64" s="1">
-        <v>7007</v>
+        <v>6020</v>
       </c>
       <c r="F64" s="1">
-        <v>7107</v>
+        <v>7114</v>
       </c>
       <c r="G64" s="1">
-        <v>5010</v>
+        <v>5030</v>
       </c>
       <c r="H64" s="1">
-        <v>6030</v>
+        <v>5020</v>
       </c>
       <c r="I64" s="1">
-        <v>1010</v>
+        <v>2030</v>
       </c>
       <c r="J64" s="1">
-        <v>2010</v>
+        <v>5020</v>
       </c>
       <c r="K64" s="1"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A65" s="1">
+        <v>8999</v>
+      </c>
+      <c r="B65" s="1">
+        <v>7162</v>
+      </c>
+      <c r="C65" s="1">
         <v>4001</v>
-      </c>
-      <c r="B65" s="1">
-        <v>3010</v>
-      </c>
-      <c r="C65" s="1">
-        <v>6010</v>
       </c>
       <c r="D65" s="1">
         <v>2030</v>
       </c>
       <c r="E65" s="1">
-        <v>7022</v>
+        <v>6020</v>
       </c>
       <c r="F65" s="1">
-        <v>7122</v>
+        <v>6010</v>
       </c>
       <c r="G65" s="1">
-        <v>5010</v>
+        <v>2010</v>
       </c>
       <c r="H65" s="1">
-        <v>4001</v>
+        <v>7108</v>
       </c>
       <c r="I65" s="1">
         <v>1010</v>
@@ -3535,34 +3535,34 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A66" s="1">
-        <v>1010</v>
+        <v>4001</v>
       </c>
       <c r="B66" s="1">
-        <v>4001</v>
+        <v>5030</v>
       </c>
       <c r="C66" s="1">
+        <v>9999</v>
+      </c>
+      <c r="D66" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E66" s="1">
+        <v>7194</v>
+      </c>
+      <c r="F66" s="1">
         <v>3010</v>
       </c>
-      <c r="D66" s="1">
-        <v>6010</v>
-      </c>
-      <c r="E66" s="1">
-        <v>1030</v>
-      </c>
-      <c r="F66" s="1">
-        <v>5010</v>
-      </c>
       <c r="G66" s="1">
-        <v>2010</v>
+        <v>3010</v>
       </c>
       <c r="H66" s="1">
-        <v>7111</v>
+        <v>3040</v>
       </c>
       <c r="I66" s="1">
+        <v>3030</v>
+      </c>
+      <c r="J66" s="1">
         <v>6030</v>
-      </c>
-      <c r="J66" s="1">
-        <v>7011</v>
       </c>
       <c r="K66" s="1"/>
     </row>
@@ -3571,292 +3571,292 @@
         <v>1010</v>
       </c>
       <c r="B67" s="1">
-        <v>4001</v>
+        <v>6020</v>
       </c>
       <c r="C67" s="1">
-        <v>3010</v>
+        <v>3020</v>
       </c>
       <c r="D67" s="1">
         <v>6010</v>
       </c>
       <c r="E67" s="1">
-        <v>2030</v>
+        <v>1030</v>
       </c>
       <c r="F67" s="1">
-        <v>5010</v>
+        <v>6010</v>
       </c>
       <c r="G67" s="1">
-        <v>2010</v>
+        <v>5030</v>
       </c>
       <c r="H67" s="1">
-        <v>7124</v>
+        <v>3040</v>
       </c>
       <c r="I67" s="1">
-        <v>4001</v>
+        <v>5030</v>
       </c>
       <c r="J67" s="1">
-        <v>7024</v>
+        <v>4003</v>
       </c>
       <c r="K67" s="1"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A68" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B68" s="1">
+        <v>7178</v>
+      </c>
+      <c r="C68" s="1">
+        <v>3020</v>
+      </c>
+      <c r="D68" s="1">
         <v>1030</v>
       </c>
-      <c r="B68" s="1">
-        <v>7163</v>
-      </c>
-      <c r="C68" s="1">
-        <v>8999</v>
-      </c>
-      <c r="D68" s="1">
-        <v>7063</v>
-      </c>
       <c r="E68" s="1">
-        <v>6030</v>
+        <v>7189</v>
       </c>
       <c r="F68" s="1">
         <v>2030</v>
       </c>
       <c r="G68" s="1">
-        <v>5030</v>
+        <v>3080</v>
       </c>
       <c r="H68" s="1">
+        <v>1020</v>
+      </c>
+      <c r="I68" s="1">
         <v>3030</v>
       </c>
-      <c r="I68" s="1">
-        <v>4003</v>
-      </c>
       <c r="J68" s="1">
-        <v>4003</v>
+        <v>5020</v>
       </c>
       <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A69" s="1">
-        <v>2020</v>
+        <v>2010</v>
       </c>
       <c r="B69" s="1">
-        <v>6020</v>
+        <v>7166</v>
       </c>
       <c r="C69" s="1">
-        <v>3020</v>
+        <v>5040</v>
       </c>
       <c r="D69" s="1">
-        <v>7046</v>
+        <v>1030</v>
       </c>
       <c r="E69" s="1">
-        <v>7146</v>
+        <v>7160</v>
       </c>
       <c r="F69" s="1">
-        <v>5010</v>
+        <v>7110</v>
       </c>
       <c r="G69" s="1">
+        <v>4002</v>
+      </c>
+      <c r="H69" s="1">
         <v>1020</v>
       </c>
-      <c r="H69" s="1">
-        <v>5020</v>
-      </c>
       <c r="I69" s="1">
-        <v>3030</v>
+        <v>2030</v>
       </c>
       <c r="J69" s="1">
-        <v>4002</v>
+        <v>6030</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A70" s="1">
-        <v>1010</v>
+        <v>2010</v>
       </c>
       <c r="B70" s="1">
-        <v>4001</v>
+        <v>7168</v>
       </c>
       <c r="C70" s="1">
-        <v>5010</v>
+        <v>8999</v>
       </c>
       <c r="D70" s="1">
-        <v>1030</v>
+        <v>2020</v>
       </c>
       <c r="E70" s="1">
-        <v>2010</v>
+        <v>6030</v>
       </c>
       <c r="F70" s="1">
-        <v>6010</v>
+        <v>7122</v>
       </c>
       <c r="G70" s="1">
         <v>3010</v>
       </c>
       <c r="H70" s="1">
-        <v>7104</v>
+        <v>6080</v>
       </c>
       <c r="I70" s="1">
-        <v>7004</v>
+        <v>2030</v>
       </c>
       <c r="J70" s="1">
-        <v>6030</v>
+        <v>6010</v>
       </c>
       <c r="K70" s="1"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A71" s="1">
-        <v>1010</v>
+        <v>5030</v>
       </c>
       <c r="B71" s="1">
         <v>4001</v>
       </c>
       <c r="C71" s="1">
-        <v>5010</v>
+        <v>7088</v>
       </c>
       <c r="D71" s="1">
-        <v>1030</v>
+        <v>7060</v>
       </c>
       <c r="E71" s="1">
-        <v>2010</v>
+        <v>7182</v>
       </c>
       <c r="F71" s="1">
-        <v>6010</v>
+        <v>2040</v>
       </c>
       <c r="G71" s="1">
-        <v>3010</v>
+        <v>1020</v>
       </c>
       <c r="H71" s="1">
-        <v>7112</v>
+        <v>3040</v>
       </c>
       <c r="I71" s="1">
-        <v>7012</v>
+        <v>3030</v>
       </c>
       <c r="J71" s="1">
-        <v>6030</v>
+        <v>5030</v>
       </c>
       <c r="K71" s="1"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A72" s="1">
-        <v>2020</v>
+        <v>1010</v>
       </c>
       <c r="B72" s="1">
-        <v>6020</v>
+        <v>7177</v>
       </c>
       <c r="C72" s="1">
-        <v>3020</v>
+        <v>3030</v>
       </c>
       <c r="D72" s="1">
-        <v>7040</v>
+        <v>1020</v>
       </c>
       <c r="E72" s="1">
-        <v>7140</v>
+        <v>6030</v>
       </c>
       <c r="F72" s="1">
         <v>5010</v>
       </c>
       <c r="G72" s="1">
-        <v>1020</v>
+        <v>2010</v>
       </c>
       <c r="H72" s="1">
-        <v>5020</v>
+        <v>7111</v>
       </c>
       <c r="I72" s="1">
-        <v>3030</v>
+        <v>2030</v>
       </c>
       <c r="J72" s="1">
-        <v>4002</v>
+        <v>7024</v>
       </c>
       <c r="K72" s="1"/>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A73" s="1">
-        <v>2020</v>
+        <v>5030</v>
       </c>
       <c r="B73" s="1">
-        <v>6020</v>
+        <v>7175</v>
       </c>
       <c r="C73" s="1">
-        <v>3020</v>
+        <v>5010</v>
       </c>
       <c r="D73" s="1">
-        <v>7042</v>
+        <v>6010</v>
       </c>
       <c r="E73" s="1">
-        <v>7142</v>
+        <v>7140</v>
       </c>
       <c r="F73" s="1">
+        <v>4002</v>
+      </c>
+      <c r="G73" s="1">
         <v>5010</v>
       </c>
-      <c r="G73" s="1">
-        <v>1020</v>
-      </c>
       <c r="H73" s="1">
-        <v>5020</v>
+        <v>3030</v>
       </c>
       <c r="I73" s="1">
-        <v>3030</v>
+        <v>4003</v>
       </c>
       <c r="J73" s="1">
-        <v>4002</v>
+        <v>5030</v>
       </c>
       <c r="K73" s="1"/>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A74" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B74" s="1">
+        <v>7179</v>
+      </c>
+      <c r="C74" s="1">
+        <v>3030</v>
+      </c>
+      <c r="D74" s="1">
+        <v>1030</v>
+      </c>
+      <c r="E74" s="1">
+        <v>6030</v>
+      </c>
+      <c r="F74" s="1">
+        <v>4003</v>
+      </c>
+      <c r="G74" s="1">
         <v>2010</v>
       </c>
-      <c r="B74" s="1">
-        <v>7027</v>
-      </c>
-      <c r="C74" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D74" s="1">
-        <v>1010</v>
-      </c>
-      <c r="E74" s="1">
-        <v>2030</v>
-      </c>
-      <c r="F74" s="1">
-        <v>3010</v>
-      </c>
-      <c r="G74" s="1">
-        <v>5010</v>
-      </c>
       <c r="H74" s="1">
-        <v>7127</v>
+        <v>3030</v>
       </c>
       <c r="I74" s="1">
-        <v>4002</v>
+        <v>5030</v>
       </c>
       <c r="J74" s="1">
-        <v>6010</v>
+        <v>7095</v>
       </c>
       <c r="K74" s="1"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A75" s="1">
+        <v>5030</v>
+      </c>
+      <c r="B75" s="1">
+        <v>7164</v>
+      </c>
+      <c r="C75" s="1">
+        <v>5040</v>
+      </c>
+      <c r="D75" s="1">
         <v>1030</v>
       </c>
-      <c r="B75" s="1">
-        <v>7173</v>
-      </c>
-      <c r="C75" s="1">
-        <v>8999</v>
-      </c>
-      <c r="D75" s="1">
-        <v>7073</v>
-      </c>
       <c r="E75" s="1">
-        <v>6030</v>
+        <v>7016</v>
       </c>
       <c r="F75" s="1">
-        <v>2030</v>
+        <v>5080</v>
       </c>
       <c r="G75" s="1">
-        <v>5030</v>
+        <v>4002</v>
       </c>
       <c r="H75" s="1">
         <v>3030</v>
       </c>
       <c r="I75" s="1">
-        <v>4003</v>
+        <v>2030</v>
       </c>
       <c r="J75" s="1">
         <v>4003</v>
@@ -3865,7 +3865,7 @@
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A76" s="1">
-        <v>2020</v>
+        <v>2060</v>
       </c>
       <c r="B76" s="1">
         <v>2030</v>
@@ -3874,487 +3874,487 @@
         <v>3020</v>
       </c>
       <c r="D76" s="1">
-        <v>1020</v>
+        <v>1030</v>
       </c>
       <c r="E76" s="1">
-        <v>7136</v>
+        <v>6030</v>
       </c>
       <c r="F76" s="1">
-        <v>5010</v>
+        <v>3010</v>
       </c>
       <c r="G76" s="1">
-        <v>4002</v>
+        <v>7066</v>
       </c>
       <c r="H76" s="1">
-        <v>7036</v>
+        <v>7124</v>
       </c>
       <c r="I76" s="1">
-        <v>6020</v>
+        <v>1010</v>
       </c>
       <c r="J76" s="1">
-        <v>5020</v>
+        <v>4003</v>
       </c>
       <c r="K76" s="1"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A77" s="1">
-        <v>2020</v>
+        <v>7087</v>
       </c>
       <c r="B77" s="1">
-        <v>6020</v>
+        <v>7165</v>
       </c>
       <c r="C77" s="1">
-        <v>3020</v>
+        <v>6010</v>
       </c>
       <c r="D77" s="1">
-        <v>7060</v>
+        <v>1060</v>
       </c>
       <c r="E77" s="1">
-        <v>7160</v>
+        <v>7014</v>
       </c>
       <c r="F77" s="1">
-        <v>8999</v>
+        <v>5010</v>
       </c>
       <c r="G77" s="1">
-        <v>1020</v>
+        <v>3060</v>
       </c>
       <c r="H77" s="1">
-        <v>5020</v>
+        <v>1040</v>
       </c>
       <c r="I77" s="1">
-        <v>4003</v>
+        <v>6030</v>
       </c>
       <c r="J77" s="1">
-        <v>4002</v>
+        <v>7021</v>
       </c>
       <c r="K77" s="1"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A78" s="1">
-        <v>1030</v>
+        <v>4004</v>
       </c>
       <c r="B78" s="1">
-        <v>7178</v>
+        <v>4001</v>
       </c>
       <c r="C78" s="1">
-        <v>8999</v>
+        <v>3030</v>
       </c>
       <c r="D78" s="1">
-        <v>7078</v>
+        <v>1080</v>
       </c>
       <c r="E78" s="1">
-        <v>6030</v>
+        <v>2010</v>
       </c>
       <c r="F78" s="1">
-        <v>2030</v>
+        <v>4003</v>
       </c>
       <c r="G78" s="1">
-        <v>5030</v>
+        <v>1040</v>
       </c>
       <c r="H78" s="1">
-        <v>3030</v>
+        <v>7112</v>
       </c>
       <c r="I78" s="1">
         <v>4003</v>
       </c>
       <c r="J78" s="1">
-        <v>4003</v>
+        <v>6030</v>
       </c>
       <c r="K78" s="1"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A79" s="1">
+        <v>7082</v>
+      </c>
+      <c r="B79" s="1">
+        <v>4001</v>
+      </c>
+      <c r="C79" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D79" s="1">
+        <v>1060</v>
+      </c>
+      <c r="E79" s="1">
+        <v>7141</v>
+      </c>
+      <c r="F79" s="1">
+        <v>5010</v>
+      </c>
+      <c r="G79" s="1">
         <v>5030</v>
       </c>
-      <c r="B79" s="1">
-        <v>7174</v>
-      </c>
-      <c r="C79" s="1">
+      <c r="H79" s="1">
+        <v>6030</v>
+      </c>
+      <c r="I79" s="1">
         <v>3030</v>
       </c>
-      <c r="D79" s="1">
-        <v>1030</v>
-      </c>
-      <c r="E79" s="1">
-        <v>4003</v>
-      </c>
-      <c r="F79" s="1">
-        <v>4003</v>
-      </c>
-      <c r="G79" s="1">
-        <v>7074</v>
-      </c>
-      <c r="H79" s="1">
-        <v>8999</v>
-      </c>
-      <c r="I79" s="1">
-        <v>2030</v>
-      </c>
       <c r="J79" s="1">
-        <v>6030</v>
+        <v>5030</v>
       </c>
       <c r="K79" s="1"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A80" s="1">
+        <v>2020</v>
+      </c>
+      <c r="B80" s="1">
+        <v>7029</v>
+      </c>
+      <c r="C80" s="1">
+        <v>4001</v>
+      </c>
+      <c r="D80" s="1">
         <v>1030</v>
       </c>
-      <c r="B80" s="1">
-        <v>7179</v>
-      </c>
-      <c r="C80" s="1">
-        <v>8999</v>
-      </c>
-      <c r="D80" s="1">
-        <v>7079</v>
-      </c>
       <c r="E80" s="1">
+        <v>2010</v>
+      </c>
+      <c r="F80" s="1">
+        <v>6010</v>
+      </c>
+      <c r="G80" s="1">
+        <v>7067</v>
+      </c>
+      <c r="H80" s="1">
+        <v>7130</v>
+      </c>
+      <c r="I80" s="1">
+        <v>7008</v>
+      </c>
+      <c r="J80" s="1">
         <v>6030</v>
-      </c>
-      <c r="F80" s="1">
-        <v>2030</v>
-      </c>
-      <c r="G80" s="1">
-        <v>5030</v>
-      </c>
-      <c r="H80" s="1">
-        <v>3030</v>
-      </c>
-      <c r="I80" s="1">
-        <v>4003</v>
-      </c>
-      <c r="J80" s="1">
-        <v>4003</v>
       </c>
       <c r="K80" s="1"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A81" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B81" s="1">
+        <v>7057</v>
+      </c>
+      <c r="C81" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D81" s="1">
+        <v>7071</v>
+      </c>
+      <c r="E81" s="1">
         <v>2010</v>
       </c>
-      <c r="B81" s="1">
-        <v>7015</v>
-      </c>
-      <c r="C81" s="1">
-        <v>4001</v>
-      </c>
-      <c r="D81" s="1">
-        <v>1010</v>
-      </c>
-      <c r="E81" s="1">
-        <v>1030</v>
-      </c>
       <c r="F81" s="1">
-        <v>3010</v>
+        <v>7107</v>
       </c>
       <c r="G81" s="1">
-        <v>5010</v>
+        <v>9999</v>
       </c>
       <c r="H81" s="1">
-        <v>7115</v>
+        <v>7056</v>
       </c>
       <c r="I81" s="1">
+        <v>4002</v>
+      </c>
+      <c r="J81" s="1">
         <v>6030</v>
-      </c>
-      <c r="J81" s="1">
-        <v>6010</v>
       </c>
       <c r="K81" s="1"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A82" s="1">
-        <v>1010</v>
+        <v>4001</v>
       </c>
       <c r="B82" s="1">
-        <v>4001</v>
+        <v>5030</v>
       </c>
       <c r="C82" s="1">
-        <v>3010</v>
+        <v>6010</v>
       </c>
       <c r="D82" s="1">
-        <v>6010</v>
+        <v>7061</v>
       </c>
       <c r="E82" s="1">
-        <v>2030</v>
+        <v>2010</v>
       </c>
       <c r="F82" s="1">
         <v>5010</v>
       </c>
       <c r="G82" s="1">
-        <v>2010</v>
+        <v>7068</v>
       </c>
       <c r="H82" s="1">
-        <v>7121</v>
+        <v>3030</v>
       </c>
       <c r="I82" s="1">
-        <v>4001</v>
+        <v>4003</v>
       </c>
       <c r="J82" s="1">
-        <v>7021</v>
+        <v>7099</v>
       </c>
       <c r="K82" s="1"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A83" s="1">
-        <v>4001</v>
+        <v>1010</v>
       </c>
       <c r="B83" s="1">
         <v>3010</v>
       </c>
       <c r="C83" s="1">
-        <v>6010</v>
+        <v>5020</v>
       </c>
       <c r="D83" s="1">
+        <v>1010</v>
+      </c>
+      <c r="E83" s="1">
+        <v>7010</v>
+      </c>
+      <c r="F83" s="1">
+        <v>4003</v>
+      </c>
+      <c r="G83" s="1">
+        <v>4002</v>
+      </c>
+      <c r="H83" s="1">
+        <v>5020</v>
+      </c>
+      <c r="I83" s="1">
         <v>2030</v>
       </c>
-      <c r="E83" s="1">
-        <v>7028</v>
-      </c>
-      <c r="F83" s="1">
-        <v>7128</v>
-      </c>
-      <c r="G83" s="1">
-        <v>5010</v>
-      </c>
-      <c r="H83" s="1">
+      <c r="J83" s="1">
         <v>4002</v>
-      </c>
-      <c r="I83" s="1">
-        <v>1010</v>
-      </c>
-      <c r="J83" s="1">
-        <v>2010</v>
       </c>
       <c r="K83" s="1"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A84" s="1">
-        <v>2080</v>
+        <v>2010</v>
       </c>
       <c r="B84" s="1">
-        <v>4006</v>
+        <v>4001</v>
       </c>
       <c r="C84" s="1">
-        <v>8999</v>
+        <v>7085</v>
       </c>
       <c r="D84" s="1">
-        <v>1080</v>
+        <v>1030</v>
       </c>
       <c r="E84" s="1">
-        <v>7196</v>
+        <v>2010</v>
       </c>
       <c r="F84" s="1">
-        <v>5080</v>
+        <v>2030</v>
       </c>
       <c r="G84" s="1">
-        <v>3080</v>
+        <v>4002</v>
       </c>
       <c r="H84" s="1">
         <v>6080</v>
       </c>
       <c r="I84" s="1">
-        <v>5030</v>
+        <v>2030</v>
       </c>
       <c r="J84" s="1">
-        <v>7096</v>
+        <v>8999</v>
       </c>
       <c r="K84" s="1"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A85" s="1">
-        <v>1010</v>
+        <v>5010</v>
       </c>
       <c r="B85" s="1">
-        <v>4001</v>
+        <v>3010</v>
       </c>
       <c r="C85" s="1">
-        <v>5010</v>
+        <v>3010</v>
       </c>
       <c r="D85" s="1">
-        <v>2030</v>
+        <v>1020</v>
       </c>
       <c r="E85" s="1">
-        <v>2010</v>
+        <v>7158</v>
       </c>
       <c r="F85" s="1">
-        <v>6010</v>
+        <v>7101</v>
       </c>
       <c r="G85" s="1">
-        <v>3010</v>
+        <v>1020</v>
       </c>
       <c r="H85" s="1">
         <v>7123</v>
       </c>
       <c r="I85" s="1">
-        <v>7023</v>
+        <v>3030</v>
       </c>
       <c r="J85" s="1">
-        <v>4001</v>
+        <v>4002</v>
       </c>
       <c r="K85" s="1"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A86" s="1">
-        <v>1010</v>
+        <v>4001</v>
       </c>
       <c r="B86" s="1">
-        <v>7054</v>
+        <v>3010</v>
       </c>
       <c r="C86" s="1">
-        <v>5020</v>
+        <v>3020</v>
       </c>
       <c r="D86" s="1">
-        <v>2020</v>
+        <v>1030</v>
       </c>
       <c r="E86" s="1">
-        <v>6020</v>
+        <v>7197</v>
       </c>
       <c r="F86" s="1">
-        <v>4002</v>
+        <v>8999</v>
       </c>
       <c r="G86" s="1">
-        <v>3020</v>
+        <v>5010</v>
       </c>
       <c r="H86" s="1">
-        <v>1020</v>
+        <v>7041</v>
       </c>
       <c r="I86" s="1">
-        <v>3030</v>
+        <v>4004</v>
       </c>
       <c r="J86" s="1">
-        <v>7154</v>
+        <v>9999</v>
       </c>
       <c r="K86" s="1"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A87" s="1">
-        <v>5030</v>
+        <v>2080</v>
       </c>
       <c r="B87" s="1">
-        <v>7172</v>
+        <v>7171</v>
       </c>
       <c r="C87" s="1">
         <v>3030</v>
       </c>
       <c r="D87" s="1">
-        <v>1030</v>
+        <v>1020</v>
       </c>
       <c r="E87" s="1">
-        <v>4003</v>
+        <v>6020</v>
       </c>
       <c r="F87" s="1">
         <v>4003</v>
       </c>
       <c r="G87" s="1">
-        <v>7072</v>
+        <v>5010</v>
       </c>
       <c r="H87" s="1">
-        <v>8999</v>
+        <v>1020</v>
       </c>
       <c r="I87" s="1">
         <v>2030</v>
       </c>
       <c r="J87" s="1">
-        <v>6030</v>
+        <v>6010</v>
       </c>
       <c r="K87" s="1"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A88" s="1">
-        <v>2020</v>
+        <v>1030</v>
       </c>
       <c r="B88" s="1">
+        <v>3010</v>
+      </c>
+      <c r="C88" s="1">
+        <v>5020</v>
+      </c>
+      <c r="D88" s="1">
+        <v>7070</v>
+      </c>
+      <c r="E88" s="1">
+        <v>7134</v>
+      </c>
+      <c r="F88" s="1">
+        <v>4002</v>
+      </c>
+      <c r="G88" s="1">
+        <v>3060</v>
+      </c>
+      <c r="H88" s="1">
+        <v>7118</v>
+      </c>
+      <c r="I88" s="1">
         <v>3030</v>
       </c>
-      <c r="C88" s="1">
-        <v>3020</v>
-      </c>
-      <c r="D88" s="1">
-        <v>1020</v>
-      </c>
-      <c r="E88" s="1">
-        <v>7158</v>
-      </c>
-      <c r="F88" s="1">
-        <v>8999</v>
-      </c>
-      <c r="G88" s="1">
-        <v>4002</v>
-      </c>
-      <c r="H88" s="1">
-        <v>7058</v>
-      </c>
-      <c r="I88" s="1">
-        <v>6020</v>
-      </c>
       <c r="J88" s="1">
-        <v>5020</v>
+        <v>7094</v>
       </c>
       <c r="K88" s="1"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A89" s="1">
-        <v>1010</v>
+        <v>7089</v>
       </c>
       <c r="B89" s="1">
-        <v>4001</v>
+        <v>7035</v>
       </c>
       <c r="C89" s="1">
-        <v>5010</v>
+        <v>3020</v>
       </c>
       <c r="D89" s="1">
         <v>1030</v>
       </c>
       <c r="E89" s="1">
-        <v>2010</v>
+        <v>7159</v>
       </c>
       <c r="F89" s="1">
-        <v>6010</v>
+        <v>4002</v>
       </c>
       <c r="G89" s="1">
-        <v>3010</v>
+        <v>9999</v>
       </c>
       <c r="H89" s="1">
-        <v>7100</v>
+        <v>3030</v>
       </c>
       <c r="I89" s="1">
         <v>7000</v>
       </c>
       <c r="J89" s="1">
-        <v>6030</v>
+        <v>7155</v>
       </c>
       <c r="K89" s="1"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A90" s="1">
-        <v>2010</v>
+        <v>5030</v>
       </c>
       <c r="B90" s="1">
-        <v>7030</v>
+        <v>4006</v>
       </c>
       <c r="C90" s="1">
-        <v>4001</v>
+        <v>6010</v>
       </c>
       <c r="D90" s="1">
-        <v>1010</v>
+        <v>6040</v>
       </c>
       <c r="E90" s="1">
         <v>2030</v>
       </c>
       <c r="F90" s="1">
-        <v>3010</v>
+        <v>5010</v>
       </c>
       <c r="G90" s="1">
-        <v>5010</v>
+        <v>2010</v>
       </c>
       <c r="H90" s="1">
-        <v>7130</v>
+        <v>6030</v>
       </c>
       <c r="I90" s="1">
-        <v>4002</v>
+        <v>2030</v>
       </c>
       <c r="J90" s="1">
-        <v>6010</v>
+        <v>7151</v>
       </c>
       <c r="K90" s="1"/>
     </row>
@@ -4363,64 +4363,64 @@
         <v>1010</v>
       </c>
       <c r="B91" s="1">
-        <v>4001</v>
+        <v>4004</v>
       </c>
       <c r="C91" s="1">
-        <v>5010</v>
+        <v>5020</v>
       </c>
       <c r="D91" s="1">
         <v>1030</v>
       </c>
       <c r="E91" s="1">
-        <v>2010</v>
+        <v>7025</v>
       </c>
       <c r="F91" s="1">
-        <v>6010</v>
+        <v>5020</v>
       </c>
       <c r="G91" s="1">
-        <v>3010</v>
+        <v>3020</v>
       </c>
       <c r="H91" s="1">
-        <v>7108</v>
+        <v>7106</v>
       </c>
       <c r="I91" s="1">
-        <v>7008</v>
+        <v>6030</v>
       </c>
       <c r="J91" s="1">
-        <v>6030</v>
+        <v>7098</v>
       </c>
       <c r="K91" s="1"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A92" s="1">
-        <v>2060</v>
+        <v>1010</v>
       </c>
       <c r="B92" s="1">
-        <v>4004</v>
+        <v>6020</v>
       </c>
       <c r="C92" s="1">
-        <v>8999</v>
+        <v>3020</v>
       </c>
       <c r="D92" s="1">
-        <v>1060</v>
+        <v>2020</v>
       </c>
       <c r="E92" s="1">
-        <v>7194</v>
+        <v>4003</v>
       </c>
       <c r="F92" s="1">
-        <v>5060</v>
+        <v>5100</v>
       </c>
       <c r="G92" s="1">
-        <v>3060</v>
+        <v>3010</v>
       </c>
       <c r="H92" s="1">
-        <v>6060</v>
+        <v>3040</v>
       </c>
       <c r="I92" s="1">
-        <v>5030</v>
+        <v>4002</v>
       </c>
       <c r="J92" s="1">
-        <v>7094</v>
+        <v>7135</v>
       </c>
       <c r="K92" s="1"/>
     </row>
@@ -4429,295 +4429,295 @@
         <v>2020</v>
       </c>
       <c r="B93" s="1">
+        <v>4001</v>
+      </c>
+      <c r="C93" s="1">
         <v>3030</v>
       </c>
-      <c r="C93" s="1">
+      <c r="D93" s="1">
+        <v>7063</v>
+      </c>
+      <c r="E93" s="1">
+        <v>7156</v>
+      </c>
+      <c r="F93" s="1">
+        <v>6040</v>
+      </c>
+      <c r="G93" s="1">
         <v>3020</v>
       </c>
-      <c r="D93" s="1">
-        <v>1020</v>
-      </c>
-      <c r="E93" s="1">
-        <v>7150</v>
-      </c>
-      <c r="F93" s="1">
-        <v>5020</v>
-      </c>
-      <c r="G93" s="1">
-        <v>4002</v>
-      </c>
       <c r="H93" s="1">
-        <v>7050</v>
+        <v>6080</v>
       </c>
       <c r="I93" s="1">
-        <v>6020</v>
+        <v>1010</v>
       </c>
       <c r="J93" s="1">
-        <v>5020</v>
+        <v>9999</v>
       </c>
       <c r="K93" s="1"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A94" s="1">
-        <v>5020</v>
+        <v>1010</v>
       </c>
       <c r="B94" s="1">
-        <v>7051</v>
+        <v>3030</v>
       </c>
       <c r="C94" s="1">
-        <v>5020</v>
+        <v>5010</v>
       </c>
       <c r="D94" s="1">
-        <v>2020</v>
+        <v>1010</v>
       </c>
       <c r="E94" s="1">
-        <v>6020</v>
+        <v>7142</v>
       </c>
       <c r="F94" s="1">
         <v>4002</v>
       </c>
       <c r="G94" s="1">
-        <v>3020</v>
+        <v>3060</v>
       </c>
       <c r="H94" s="1">
         <v>1020</v>
       </c>
       <c r="I94" s="1">
-        <v>3030</v>
+        <v>4003</v>
       </c>
       <c r="J94" s="1">
-        <v>7151</v>
+        <v>6010</v>
       </c>
       <c r="K94" s="1"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A95" s="1">
+        <v>1010</v>
+      </c>
+      <c r="B95" s="1">
         <v>4001</v>
       </c>
-      <c r="B95" s="1">
+      <c r="C95" s="1">
+        <v>8999</v>
+      </c>
+      <c r="D95" s="1">
+        <v>7046</v>
+      </c>
+      <c r="E95" s="1">
+        <v>7193</v>
+      </c>
+      <c r="F95" s="1">
+        <v>5010</v>
+      </c>
+      <c r="G95" s="1">
         <v>3010</v>
       </c>
-      <c r="C95" s="1">
-        <v>6010</v>
-      </c>
-      <c r="D95" s="1">
-        <v>1030</v>
-      </c>
-      <c r="E95" s="1">
-        <v>7014</v>
-      </c>
-      <c r="F95" s="1">
-        <v>7114</v>
-      </c>
-      <c r="G95" s="1">
-        <v>5010</v>
-      </c>
       <c r="H95" s="1">
-        <v>6030</v>
+        <v>3030</v>
       </c>
       <c r="I95" s="1">
-        <v>1010</v>
+        <v>3030</v>
       </c>
       <c r="J95" s="1">
-        <v>2010</v>
+        <v>7011</v>
       </c>
       <c r="K95" s="1"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A96" s="1">
-        <v>5030</v>
+        <v>1030</v>
       </c>
       <c r="B96" s="1">
-        <v>7167</v>
+        <v>6020</v>
       </c>
       <c r="C96" s="1">
-        <v>3030</v>
+        <v>8999</v>
       </c>
       <c r="D96" s="1">
-        <v>1030</v>
+        <v>5040</v>
       </c>
       <c r="E96" s="1">
         <v>4003</v>
       </c>
       <c r="F96" s="1">
-        <v>4003</v>
+        <v>7125</v>
       </c>
       <c r="G96" s="1">
-        <v>7067</v>
+        <v>5010</v>
       </c>
       <c r="H96" s="1">
-        <v>8999</v>
+        <v>3030</v>
       </c>
       <c r="I96" s="1">
-        <v>2030</v>
+        <v>6020</v>
       </c>
       <c r="J96" s="1">
-        <v>6030</v>
+        <v>2010</v>
       </c>
       <c r="K96" s="1"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A97" s="1">
-        <v>2010</v>
+        <v>2020</v>
       </c>
       <c r="B97" s="1">
-        <v>7029</v>
+        <v>7163</v>
       </c>
       <c r="C97" s="1">
-        <v>4001</v>
+        <v>5010</v>
       </c>
       <c r="D97" s="1">
-        <v>1010</v>
+        <v>1030</v>
       </c>
       <c r="E97" s="1">
-        <v>2030</v>
+        <v>7195</v>
       </c>
       <c r="F97" s="1">
-        <v>3010</v>
+        <v>6040</v>
       </c>
       <c r="G97" s="1">
         <v>5010</v>
       </c>
       <c r="H97" s="1">
-        <v>7129</v>
+        <v>3040</v>
       </c>
       <c r="I97" s="1">
+        <v>6020</v>
+      </c>
+      <c r="J97" s="1">
         <v>4002</v>
-      </c>
-      <c r="J97" s="1">
-        <v>6010</v>
       </c>
       <c r="K97" s="1"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A98" s="1">
-        <v>4004</v>
+        <v>1010</v>
       </c>
       <c r="B98" s="1">
-        <v>2040</v>
+        <v>6020</v>
       </c>
       <c r="C98" s="1">
-        <v>7088</v>
+        <v>4001</v>
       </c>
       <c r="D98" s="1">
-        <v>5040</v>
+        <v>1010</v>
       </c>
       <c r="E98" s="1">
-        <v>3040</v>
+        <v>7022</v>
       </c>
       <c r="F98" s="1">
-        <v>6040</v>
+        <v>2030</v>
       </c>
       <c r="G98" s="1">
-        <v>9999</v>
+        <v>4002</v>
       </c>
       <c r="H98" s="1">
-        <v>1040</v>
+        <v>6060</v>
       </c>
       <c r="I98" s="1">
-        <v>7188</v>
+        <v>6030</v>
       </c>
       <c r="J98" s="1">
-        <v>5030</v>
+        <v>6030</v>
       </c>
       <c r="K98" s="1"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A99" s="1">
-        <v>2060</v>
+        <v>1010</v>
       </c>
       <c r="B99" s="1">
-        <v>4004</v>
+        <v>4001</v>
       </c>
       <c r="C99" s="1">
         <v>8999</v>
       </c>
       <c r="D99" s="1">
-        <v>1060</v>
+        <v>1030</v>
       </c>
       <c r="E99" s="1">
-        <v>7193</v>
+        <v>1030</v>
       </c>
       <c r="F99" s="1">
-        <v>5060</v>
+        <v>4002</v>
       </c>
       <c r="G99" s="1">
-        <v>3060</v>
+        <v>1020</v>
       </c>
       <c r="H99" s="1">
-        <v>6060</v>
+        <v>4002</v>
       </c>
       <c r="I99" s="1">
-        <v>5030</v>
+        <v>7005</v>
       </c>
       <c r="J99" s="1">
-        <v>7093</v>
+        <v>4002</v>
       </c>
       <c r="K99" s="1"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A100" s="1">
-        <v>2020</v>
+        <v>4001</v>
       </c>
       <c r="B100" s="1">
         <v>2030</v>
       </c>
       <c r="C100" s="1">
-        <v>3020</v>
+        <v>5020</v>
       </c>
       <c r="D100" s="1">
-        <v>1020</v>
+        <v>2020</v>
       </c>
       <c r="E100" s="1">
-        <v>7133</v>
+        <v>2030</v>
       </c>
       <c r="F100" s="1">
-        <v>4002</v>
+        <v>5060</v>
       </c>
       <c r="G100" s="1">
-        <v>4002</v>
+        <v>5030</v>
       </c>
       <c r="H100" s="1">
-        <v>7033</v>
+        <v>7121</v>
       </c>
       <c r="I100" s="1">
-        <v>6020</v>
+        <v>5030</v>
       </c>
       <c r="J100" s="1">
-        <v>5020</v>
+        <v>7003</v>
       </c>
       <c r="K100" s="1"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A101" s="1">
-        <v>5010</v>
+        <v>1030</v>
       </c>
       <c r="B101" s="1">
-        <v>7035</v>
+        <v>4004</v>
       </c>
       <c r="C101" s="1">
-        <v>5020</v>
+        <v>8999</v>
       </c>
       <c r="D101" s="1">
         <v>2020</v>
       </c>
       <c r="E101" s="1">
-        <v>6020</v>
+        <v>4003</v>
       </c>
       <c r="F101" s="1">
-        <v>4002</v>
+        <v>5010</v>
       </c>
       <c r="G101" s="1">
         <v>3020</v>
       </c>
       <c r="H101" s="1">
-        <v>1020</v>
+        <v>8999</v>
       </c>
       <c r="I101" s="1">
-        <v>2030</v>
+        <v>6030</v>
       </c>
       <c r="J101" s="1">
-        <v>7135</v>
+        <v>6030</v>
       </c>
       <c r="K101" s="1"/>
     </row>
